--- a/resources/experiment 1/predictions/single/LinearRegression/upto time/Retinopatía de fondo (UPTO).xlsx
+++ b/resources/experiment 1/predictions/single/LinearRegression/upto time/Retinopatía de fondo (UPTO).xlsx
@@ -647,7 +647,7 @@
         <v>0.1498741959595113</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.002407364780009811</v>
+        <v>0.002407364780009812</v>
       </c>
       <c r="AA2" t="n">
         <v>0.4501532965623835</v>
@@ -682,13 +682,13 @@
         <v>-13.2360639151707</v>
       </c>
       <c r="J3" t="n">
-        <v>6.420635292253724</v>
+        <v>6.42063529225373</v>
       </c>
       <c r="K3" t="n">
         <v>3.088415077314048</v>
       </c>
       <c r="L3" t="n">
-        <v>9.201832914847177</v>
+        <v>9.201832914847172</v>
       </c>
       <c r="M3" t="n">
         <v>16.87346286200707</v>
@@ -721,7 +721,7 @@
         <v>1.620133709987214</v>
       </c>
       <c r="W3" t="n">
-        <v>0.5669709774692163</v>
+        <v>0.5669709774692164</v>
       </c>
       <c r="X3" t="n">
         <v>3.09827893587687</v>
@@ -730,7 +730,7 @@
         <v>0.344971081622731</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.009660614413444507</v>
+        <v>0.009660614413444502</v>
       </c>
       <c r="AA3" t="n">
         <v>0.958428236890007</v>
@@ -747,13 +747,13 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>-19.04831149757927</v>
+        <v>-19.04831149757926</v>
       </c>
       <c r="E4" t="n">
         <v>-16.49005171745633</v>
       </c>
       <c r="F4" t="n">
-        <v>-20.8697028367593</v>
+        <v>-20.86970283675929</v>
       </c>
       <c r="G4" t="n">
         <v>-10.44530526391574</v>
@@ -768,10 +768,10 @@
         <v>11.0754617801178</v>
       </c>
       <c r="K4" t="n">
-        <v>7.63069918423219</v>
+        <v>7.630699184232189</v>
       </c>
       <c r="L4" t="n">
-        <v>13.91539675873738</v>
+        <v>13.91539675873737</v>
       </c>
       <c r="M4" t="n">
         <v>19.99846330143725</v>
@@ -798,13 +798,13 @@
         <v>1.413624696914176</v>
       </c>
       <c r="U4" t="n">
-        <v>5.164827823608224</v>
+        <v>5.164827823608223</v>
       </c>
       <c r="V4" t="n">
         <v>1.466130370209477</v>
       </c>
       <c r="W4" t="n">
-        <v>0.5132253328557227</v>
+        <v>0.5132253328557228</v>
       </c>
       <c r="X4" t="n">
         <v>2.812873729255609</v>
@@ -813,7 +813,7 @@
         <v>0.3083959410038342</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.009334367043676647</v>
+        <v>0.009334367043676642</v>
       </c>
       <c r="AA4" t="n">
         <v>0.8576578065351879</v>
@@ -830,34 +830,34 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>-10.62037234292858</v>
+        <v>-10.62037234292859</v>
       </c>
       <c r="E5" t="n">
         <v>-10.01168494217003</v>
       </c>
       <c r="F5" t="n">
-        <v>-10.859476887954</v>
+        <v>-10.85947688795399</v>
       </c>
       <c r="G5" t="n">
         <v>-3.700536325909717</v>
       </c>
       <c r="H5" t="n">
-        <v>-4.597842509606245</v>
+        <v>-4.597842509606242</v>
       </c>
       <c r="I5" t="n">
         <v>-2.689032125203937</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.0820421721648259</v>
+        <v>-0.08204217216481879</v>
       </c>
       <c r="K5" t="n">
         <v>-2.648649873773499</v>
       </c>
       <c r="L5" t="n">
-        <v>2.532645316354145</v>
+        <v>2.532645316354142</v>
       </c>
       <c r="M5" t="n">
-        <v>4.928019644995279</v>
+        <v>4.928019644995282</v>
       </c>
       <c r="N5" t="n">
         <v>2.07557297755725</v>
@@ -872,7 +872,7 @@
         <v>2.129697309598482</v>
       </c>
       <c r="R5" t="n">
-        <v>6.566661231771772</v>
+        <v>6.566661231771771</v>
       </c>
       <c r="S5" t="n">
         <v>2.58596217017622</v>
@@ -881,7 +881,7 @@
         <v>1.121268043594503</v>
       </c>
       <c r="U5" t="n">
-        <v>4.435277494728624</v>
+        <v>4.435277494728623</v>
       </c>
       <c r="V5" t="n">
         <v>1.348099172787359</v>
@@ -896,7 +896,7 @@
         <v>0.295076396055354</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.005867950044680478</v>
+        <v>0.005867950044680477</v>
       </c>
       <c r="AA5" t="n">
         <v>0.8570170148594277</v>
@@ -913,25 +913,25 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>4.777697199233098</v>
+        <v>4.777697199233097</v>
       </c>
       <c r="E6" t="n">
         <v>3.304818710971743</v>
       </c>
       <c r="F6" t="n">
-        <v>6.118140581647052</v>
+        <v>6.118140581647055</v>
       </c>
       <c r="G6" t="n">
         <v>6.423004023334997</v>
       </c>
       <c r="H6" t="n">
-        <v>3.947617727998459</v>
+        <v>3.947617727998458</v>
       </c>
       <c r="I6" t="n">
-        <v>8.835175984489508</v>
+        <v>8.83517598448951</v>
       </c>
       <c r="J6" t="n">
-        <v>5.756436159541048</v>
+        <v>5.75643615954105</v>
       </c>
       <c r="K6" t="n">
         <v>2.97913704933039</v>
@@ -940,10 +940,10 @@
         <v>8.723228443162329</v>
       </c>
       <c r="M6" t="n">
-        <v>4.580328034770698</v>
+        <v>4.580328034770699</v>
       </c>
       <c r="N6" t="n">
-        <v>2.197321204072732</v>
+        <v>2.197321204072733</v>
       </c>
       <c r="O6" t="n">
         <v>7.251691535042087</v>
@@ -996,7 +996,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>-3.147714602788605</v>
+        <v>-3.147714602788604</v>
       </c>
       <c r="E7" t="n">
         <v>-2.649422368614482</v>
@@ -1008,13 +1008,13 @@
         <v>7.610415046911026</v>
       </c>
       <c r="H7" t="n">
-        <v>6.211297679467814</v>
+        <v>6.211297679467815</v>
       </c>
       <c r="I7" t="n">
-        <v>8.648333461362229</v>
+        <v>8.648333461362228</v>
       </c>
       <c r="J7" t="n">
-        <v>21.05581613879074</v>
+        <v>21.05581613879073</v>
       </c>
       <c r="K7" t="n">
         <v>16.42818964548077</v>
@@ -1053,16 +1053,16 @@
         <v>0.9994177890379548</v>
       </c>
       <c r="W7" t="n">
-        <v>0.3573854446969218</v>
+        <v>0.3573854446969219</v>
       </c>
       <c r="X7" t="n">
         <v>1.932378141645851</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.2026628487672699</v>
+        <v>0.2026628487672698</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.006171222081971929</v>
+        <v>0.006171222081971925</v>
       </c>
       <c r="AA7" t="n">
         <v>0.5567782534971318</v>
@@ -1079,13 +1079,13 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>5.00961772930061</v>
+        <v>5.009617729300619</v>
       </c>
       <c r="E8" t="n">
-        <v>5.317461310199584</v>
+        <v>5.317461310199583</v>
       </c>
       <c r="F8" t="n">
-        <v>4.493426226551872</v>
+        <v>4.493426226551869</v>
       </c>
       <c r="G8" t="n">
         <v>18.01934614223429</v>
@@ -1097,7 +1097,7 @@
         <v>18.95832478489604</v>
       </c>
       <c r="J8" t="n">
-        <v>42.26695308701729</v>
+        <v>42.26695308701728</v>
       </c>
       <c r="K8" t="n">
         <v>35.70111210313125</v>
@@ -1136,16 +1136,16 @@
         <v>0.6376049346123891</v>
       </c>
       <c r="W8" t="n">
-        <v>0.2695362555695986</v>
+        <v>0.2695362555695987</v>
       </c>
       <c r="X8" t="n">
         <v>1.202240941115536</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.1073553342388042</v>
+        <v>0.1073553342388043</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.006503301186065291</v>
+        <v>0.006503301186065284</v>
       </c>
       <c r="AA8" t="n">
         <v>0.2513257572306669</v>
@@ -1162,25 +1162,25 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>-3.453246310127518</v>
+        <v>-3.45324631012752</v>
       </c>
       <c r="E9" t="n">
         <v>-3.521843603443267</v>
       </c>
       <c r="F9" t="n">
-        <v>-3.282954155987285</v>
+        <v>-3.282954155987284</v>
       </c>
       <c r="G9" t="n">
         <v>4.045641099777088</v>
       </c>
       <c r="H9" t="n">
-        <v>2.365732045090477</v>
+        <v>2.365732045090478</v>
       </c>
       <c r="I9" t="n">
         <v>5.616408615570839</v>
       </c>
       <c r="J9" t="n">
-        <v>8.861217617208318</v>
+        <v>8.86121761720832</v>
       </c>
       <c r="K9" t="n">
         <v>5.455503648081749</v>
@@ -1195,13 +1195,13 @@
         <v>6.805910402463017</v>
       </c>
       <c r="O9" t="n">
-        <v>13.58650405495525</v>
+        <v>13.58650405495524</v>
       </c>
       <c r="P9" t="n">
-        <v>3.888470692925718</v>
+        <v>3.888470692925719</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.014070858819163</v>
+        <v>2.014070858819162</v>
       </c>
       <c r="R9" t="n">
         <v>6.22713086253378</v>
@@ -1225,7 +1225,7 @@
         <v>2.17322148855654</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.2363959510194677</v>
+        <v>0.2363959510194676</v>
       </c>
       <c r="Z9" t="n">
         <v>0.005071419971135195</v>
@@ -1245,25 +1245,25 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>9.817188278915058</v>
+        <v>9.817188278915063</v>
       </c>
       <c r="E10" t="n">
         <v>9.121018098322025</v>
       </c>
       <c r="F10" t="n">
-        <v>10.04551930227851</v>
+        <v>10.0455193022785</v>
       </c>
       <c r="G10" t="n">
         <v>24.90681045327959</v>
       </c>
       <c r="H10" t="n">
-        <v>21.67457002627265</v>
+        <v>21.67457002627266</v>
       </c>
       <c r="I10" t="n">
         <v>27.31396346897649</v>
       </c>
       <c r="J10" t="n">
-        <v>38.79577844299502</v>
+        <v>38.79577844299501</v>
       </c>
       <c r="K10" t="n">
         <v>32.24433081239886</v>
@@ -1272,7 +1272,7 @@
         <v>44.29477761406709</v>
       </c>
       <c r="M10" t="n">
-        <v>31.31762497802958</v>
+        <v>31.31762497802957</v>
       </c>
       <c r="N10" t="n">
         <v>25.6055118755706</v>
@@ -1281,7 +1281,7 @@
         <v>36.92933301934463</v>
       </c>
       <c r="P10" t="n">
-        <v>3.949250592417594</v>
+        <v>3.949250592417595</v>
       </c>
       <c r="Q10" t="n">
         <v>2.172974507301877</v>
@@ -1308,10 +1308,10 @@
         <v>1.035306994029494</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.09108989317626014</v>
+        <v>0.09108989317626018</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.00452054780127754</v>
+        <v>0.004520547801277537</v>
       </c>
       <c r="AA10" t="n">
         <v>0.2162613509278846</v>
@@ -1334,7 +1334,7 @@
         <v>10.31878574539858</v>
       </c>
       <c r="F11" t="n">
-        <v>14.01882318388019</v>
+        <v>14.01882318388018</v>
       </c>
       <c r="G11" t="n">
         <v>22.10136141060385</v>
@@ -1385,7 +1385,7 @@
         <v>0.6390372654411707</v>
       </c>
       <c r="W11" t="n">
-        <v>0.2098046006507371</v>
+        <v>0.209804600650737</v>
       </c>
       <c r="X11" t="n">
         <v>1.292725900946782</v>
@@ -1394,7 +1394,7 @@
         <v>0.1306628587829033</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.001908275009430477</v>
+        <v>0.001908275009430479</v>
       </c>
       <c r="AA11" t="n">
         <v>0.380665275632579</v>
@@ -1411,7 +1411,7 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>20.37276238668485</v>
+        <v>20.37276238668484</v>
       </c>
       <c r="E12" t="n">
         <v>16.2730268249848</v>
@@ -1429,13 +1429,13 @@
         <v>26.10336380242455</v>
       </c>
       <c r="J12" t="n">
-        <v>3.542191996631564</v>
+        <v>3.542191996631567</v>
       </c>
       <c r="K12" t="n">
-        <v>0.8039415131799519</v>
+        <v>0.8039415131799501</v>
       </c>
       <c r="L12" t="n">
-        <v>6.931020085683322</v>
+        <v>6.931020085683324</v>
       </c>
       <c r="M12" t="n">
         <v>-5.281732877109324</v>
@@ -1456,7 +1456,7 @@
         <v>2.304798953677226</v>
       </c>
       <c r="S12" t="n">
-        <v>1.020804330388867</v>
+        <v>1.020804330388868</v>
       </c>
       <c r="T12" t="n">
         <v>0.3297038938637171</v>
@@ -1477,7 +1477,7 @@
         <v>0.1336606837706497</v>
       </c>
       <c r="Z12" t="n">
-        <v>-0.001030245152184445</v>
+        <v>-0.00103024515218444</v>
       </c>
       <c r="AA12" t="n">
         <v>0.4442987699824542</v>
@@ -1500,7 +1500,7 @@
         <v>22.42604718802333</v>
       </c>
       <c r="F13" t="n">
-        <v>29.45683998871815</v>
+        <v>29.45683998871814</v>
       </c>
       <c r="G13" t="n">
         <v>34.02894231484352</v>
@@ -1527,40 +1527,40 @@
         <v>8.493526768707337</v>
       </c>
       <c r="O13" t="n">
-        <v>13.40566988007473</v>
+        <v>13.40566988007472</v>
       </c>
       <c r="P13" t="n">
         <v>1.536386329353616</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.7055878306417156</v>
+        <v>0.7055878306417157</v>
       </c>
       <c r="R13" t="n">
         <v>2.883680129415098</v>
       </c>
       <c r="S13" t="n">
-        <v>0.6434571870237961</v>
+        <v>0.6434571870237962</v>
       </c>
       <c r="T13" t="n">
         <v>0.2454363808575747</v>
       </c>
       <c r="U13" t="n">
-        <v>1.28130021176265</v>
+        <v>1.281300211762651</v>
       </c>
       <c r="V13" t="n">
         <v>0.260670670666577</v>
       </c>
       <c r="W13" t="n">
-        <v>0.07283392684007939</v>
+        <v>0.07283392684007936</v>
       </c>
       <c r="X13" t="n">
         <v>0.5957398204296656</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.04703507096332848</v>
+        <v>0.04703507096332851</v>
       </c>
       <c r="Z13" t="n">
-        <v>-0.0007845872484968197</v>
+        <v>-0.0007845872484968158</v>
       </c>
       <c r="AA13" t="n">
         <v>0.1544874784284966</v>
@@ -1613,7 +1613,7 @@
         <v>17.81288170063857</v>
       </c>
       <c r="P14" t="n">
-        <v>2.519606323025183</v>
+        <v>2.519606323025184</v>
       </c>
       <c r="Q14" t="n">
         <v>1.273411464322403</v>
@@ -1640,10 +1640,10 @@
         <v>1.027699834231245</v>
       </c>
       <c r="Y14" t="n">
-        <v>0.09698168540438795</v>
+        <v>0.09698168540438798</v>
       </c>
       <c r="Z14" t="n">
-        <v>0.001553220572860705</v>
+        <v>0.001553220572860706</v>
       </c>
       <c r="AA14" t="n">
         <v>0.285108580181929</v>
@@ -1660,13 +1660,13 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>3.102816307995715</v>
+        <v>3.102816307995708</v>
       </c>
       <c r="E15" t="n">
         <v>1.223155265625929</v>
       </c>
       <c r="F15" t="n">
-        <v>4.863511257788515</v>
+        <v>4.863511257788519</v>
       </c>
       <c r="G15" t="n">
         <v>4.662270631196016</v>
@@ -1675,10 +1675,10 @@
         <v>1.638175331032523</v>
       </c>
       <c r="I15" t="n">
-        <v>7.857999664762829</v>
+        <v>7.857999664762831</v>
       </c>
       <c r="J15" t="n">
-        <v>-6.584719636583372</v>
+        <v>-6.584719636583365</v>
       </c>
       <c r="K15" t="n">
         <v>-8.385714824861044</v>
@@ -1687,7 +1687,7 @@
         <v>-4.136542282138883</v>
       </c>
       <c r="M15" t="n">
-        <v>-7.017423572016504</v>
+        <v>-7.017423572016501</v>
       </c>
       <c r="N15" t="n">
         <v>-7.708404680293798</v>
@@ -1696,7 +1696,7 @@
         <v>-5.789109751768926</v>
       </c>
       <c r="P15" t="n">
-        <v>2.453982877180716</v>
+        <v>2.453982877180715</v>
       </c>
       <c r="Q15" t="n">
         <v>1.113299985133873</v>
@@ -1717,16 +1717,16 @@
         <v>1.076064635587503</v>
       </c>
       <c r="W15" t="n">
-        <v>0.3095477180731334</v>
+        <v>0.3095477180731333</v>
       </c>
       <c r="X15" t="n">
         <v>2.185993468664014</v>
       </c>
       <c r="Y15" t="n">
-        <v>0.245181710487977</v>
+        <v>0.2451817104879769</v>
       </c>
       <c r="Z15" t="n">
-        <v>0.002075285675916448</v>
+        <v>0.002075285675916452</v>
       </c>
       <c r="AA15" t="n">
         <v>0.7556057928288484</v>
@@ -1743,25 +1743,25 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>3.408348015334631</v>
+        <v>3.408348015334627</v>
       </c>
       <c r="E16" t="n">
         <v>2.095576500454715</v>
       </c>
       <c r="F16" t="n">
-        <v>4.578539916883971</v>
+        <v>4.578539916883972</v>
       </c>
       <c r="G16" t="n">
         <v>8.227044578329952</v>
       </c>
       <c r="H16" t="n">
-        <v>5.48374096540986</v>
+        <v>5.483740965409861</v>
       </c>
       <c r="I16" t="n">
         <v>10.88992451055422</v>
       </c>
       <c r="J16" t="n">
-        <v>5.609878884999043</v>
+        <v>5.609878884999047</v>
       </c>
       <c r="K16" t="n">
         <v>2.586971172537977</v>
@@ -1773,7 +1773,7 @@
         <v>4.163680781051331</v>
       </c>
       <c r="N16" t="n">
-        <v>1.913921573537493</v>
+        <v>1.913921573537494</v>
       </c>
       <c r="O16" t="n">
         <v>6.733366559005864</v>
@@ -1785,7 +1785,7 @@
         <v>1.505872196586858</v>
       </c>
       <c r="R16" t="n">
-        <v>4.975730184751928</v>
+        <v>4.975730184751927</v>
       </c>
       <c r="S16" t="n">
         <v>1.875689523421807</v>
@@ -1803,13 +1803,13 @@
         <v>0.3012886739605172</v>
       </c>
       <c r="X16" t="n">
-        <v>1.945150121753326</v>
+        <v>1.945150121753325</v>
       </c>
       <c r="Y16" t="n">
-        <v>0.2114486082357792</v>
+        <v>0.2114486082357791</v>
       </c>
       <c r="Z16" t="n">
-        <v>0.003175087786753181</v>
+        <v>0.003175087786753182</v>
       </c>
       <c r="AA16" t="n">
         <v>0.6308392176553453</v>
@@ -1838,22 +1838,22 @@
         <v>17.30586927703791</v>
       </c>
       <c r="H17" t="n">
-        <v>12.51333041792704</v>
+        <v>12.51333041792703</v>
       </c>
       <c r="I17" t="n">
         <v>21.99386675029513</v>
       </c>
       <c r="J17" t="n">
-        <v>3.835306545715575</v>
+        <v>3.835306545715573</v>
       </c>
       <c r="K17" t="n">
-        <v>1.58827326676478</v>
+        <v>1.588273266764778</v>
       </c>
       <c r="L17" t="n">
         <v>6.800287767984269</v>
       </c>
       <c r="M17" t="n">
-        <v>-4.44843836967059</v>
+        <v>-4.448438369670589</v>
       </c>
       <c r="N17" t="n">
         <v>-5.008938018424002</v>
@@ -1892,7 +1892,7 @@
         <v>0.1220848148091238</v>
       </c>
       <c r="Z17" t="n">
-        <v>-0.0009150168849767957</v>
+        <v>-0.0009150168849767926</v>
       </c>
       <c r="AA17" t="n">
         <v>0.4234438303657778</v>
@@ -1945,7 +1945,7 @@
         <v>25.62434083552281</v>
       </c>
       <c r="P18" t="n">
-        <v>5.732820616662655</v>
+        <v>5.732820616662654</v>
       </c>
       <c r="Q18" t="n">
         <v>3.093716646849602</v>
@@ -1960,13 +1960,13 @@
         <v>1.398348095711671</v>
       </c>
       <c r="U18" t="n">
-        <v>5.145436166792814</v>
+        <v>5.145436166792813</v>
       </c>
       <c r="V18" t="n">
         <v>1.439867428857153</v>
       </c>
       <c r="W18" t="n">
-        <v>0.4992747607495825</v>
+        <v>0.4992747607495826</v>
       </c>
       <c r="X18" t="n">
         <v>2.77211544944416</v>
@@ -1975,7 +1975,7 @@
         <v>0.3026080065230712</v>
       </c>
       <c r="Z18" t="n">
-        <v>0.009391981177280472</v>
+        <v>0.009391981177280465</v>
       </c>
       <c r="AA18" t="n">
         <v>0.8472303367268497</v>
@@ -2013,7 +2013,7 @@
         <v>12.4121731487337</v>
       </c>
       <c r="K19" t="n">
-        <v>8.712012096638993</v>
+        <v>8.712012096638992</v>
       </c>
       <c r="L19" t="n">
         <v>16.55424625001231</v>
@@ -2028,7 +2028,7 @@
         <v>1.142356057318047</v>
       </c>
       <c r="P19" t="n">
-        <v>0.9533413509687954</v>
+        <v>0.9533413509687949</v>
       </c>
       <c r="Q19" t="n">
         <v>0.3142234498945464</v>
@@ -2037,7 +2037,7 @@
         <v>1.968539202655236</v>
       </c>
       <c r="S19" t="n">
-        <v>0.663120001552627</v>
+        <v>0.6631200015526271</v>
       </c>
       <c r="T19" t="n">
         <v>0.1914734421106557</v>
@@ -2049,16 +2049,16 @@
         <v>0.3538712575651532</v>
       </c>
       <c r="W19" t="n">
-        <v>0.0741176848996255</v>
+        <v>0.07411768489962542</v>
       </c>
       <c r="X19" t="n">
         <v>0.8162040274346299</v>
       </c>
       <c r="Y19" t="n">
-        <v>0.07787420597514484</v>
+        <v>0.07787420597514483</v>
       </c>
       <c r="Z19" t="n">
-        <v>-0.001855582292531639</v>
+        <v>-0.001855582292531634</v>
       </c>
       <c r="AA19" t="n">
         <v>0.2740403186978306</v>
@@ -2087,7 +2087,7 @@
         <v>14.78581098044073</v>
       </c>
       <c r="H20" t="n">
-        <v>10.18363556863723</v>
+        <v>10.18363556863722</v>
       </c>
       <c r="I20" t="n">
         <v>19.38220777445628</v>
@@ -2099,13 +2099,13 @@
         <v>-2.757927901757157</v>
       </c>
       <c r="L20" t="n">
-        <v>2.054040844669299</v>
+        <v>2.054040844669302</v>
       </c>
       <c r="M20" t="n">
         <v>-7.365115182241084</v>
       </c>
       <c r="N20" t="n">
-        <v>-7.586656453778316</v>
+        <v>-7.586656453778314</v>
       </c>
       <c r="O20" t="n">
         <v>-6.454583456856675</v>
@@ -2141,7 +2141,7 @@
         <v>0.1557659881876391</v>
       </c>
       <c r="Z20" t="n">
-        <v>-0.0005599624484070235</v>
+        <v>-0.0005599624484070196</v>
       </c>
       <c r="AA20" t="n">
         <v>0.5190005258164277</v>
@@ -2158,13 +2158,13 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>7.028716620370866</v>
+        <v>7.02871662037086</v>
       </c>
       <c r="E21" t="n">
-        <v>4.770386487618571</v>
+        <v>4.77038648761857</v>
       </c>
       <c r="F21" t="n">
-        <v>9.03667278996264</v>
+        <v>9.036672789962644</v>
       </c>
       <c r="G21" t="n">
         <v>8.084349205290678</v>
@@ -2176,7 +2176,7 @@
         <v>11.49703290363404</v>
       </c>
       <c r="J21" t="n">
-        <v>-2.076450423261299</v>
+        <v>-2.076450423261296</v>
       </c>
       <c r="K21" t="n">
         <v>-4.235596594735316</v>
@@ -2185,7 +2185,7 @@
         <v>0.6423877206008477</v>
       </c>
       <c r="M21" t="n">
-        <v>-4.309070386305692</v>
+        <v>-4.30907038630569</v>
       </c>
       <c r="N21" t="n">
         <v>-5.272386060207102</v>
@@ -2203,7 +2203,7 @@
         <v>3.89245938248107</v>
       </c>
       <c r="S21" t="n">
-        <v>1.716510173532517</v>
+        <v>1.716510173532518</v>
       </c>
       <c r="T21" t="n">
         <v>0.6601277361167591</v>
@@ -2215,16 +2215,16 @@
         <v>0.948324237162089</v>
       </c>
       <c r="W21" t="n">
-        <v>0.2697526455657799</v>
+        <v>0.2697526455657798</v>
       </c>
       <c r="X21" t="n">
         <v>1.941346541854201</v>
       </c>
       <c r="Y21" t="n">
-        <v>0.2143945043498431</v>
+        <v>0.214394504349843</v>
       </c>
       <c r="Z21" t="n">
-        <v>0.001691424172544764</v>
+        <v>0.001691424172544767</v>
       </c>
       <c r="AA21" t="n">
         <v>0.6652628322823675</v>
@@ -2277,7 +2277,7 @@
         <v>29.81703303537714</v>
       </c>
       <c r="P22" t="n">
-        <v>3.097807755057411</v>
+        <v>3.097807755057412</v>
       </c>
       <c r="Q22" t="n">
         <v>1.663568014363757</v>
@@ -2301,10 +2301,10 @@
         <v>0.1687257700838375</v>
       </c>
       <c r="X22" t="n">
-        <v>0.8276147671320043</v>
+        <v>0.8276147671320042</v>
       </c>
       <c r="Y22" t="n">
-        <v>0.0690365176329531</v>
+        <v>0.06903651763295313</v>
       </c>
       <c r="Z22" t="n">
         <v>0.002595408550093613</v>
@@ -2327,28 +2327,28 @@
         <v>12.7031090012548</v>
       </c>
       <c r="E23" t="n">
-        <v>9.259059790557966</v>
+        <v>9.259059790557965</v>
       </c>
       <c r="F23" t="n">
-        <v>15.80420666018593</v>
+        <v>15.80420666018594</v>
       </c>
       <c r="G23" t="n">
         <v>5.235592999758966</v>
       </c>
       <c r="H23" t="n">
-        <v>1.683937776529103</v>
+        <v>1.683937776529101</v>
       </c>
       <c r="I23" t="n">
-        <v>9.022018507616787</v>
+        <v>9.02201850761679</v>
       </c>
       <c r="J23" t="n">
-        <v>-9.54294381970864</v>
+        <v>-9.542943819708633</v>
       </c>
       <c r="K23" t="n">
         <v>-10.46991554681999</v>
       </c>
       <c r="L23" t="n">
-        <v>-7.601868399084449</v>
+        <v>-7.601868399084452</v>
       </c>
       <c r="M23" t="n">
         <v>-12.15685067308366</v>
@@ -2390,7 +2390,7 @@
         <v>0.2086584987427625</v>
       </c>
       <c r="Z23" t="n">
-        <v>0.0002941817587420832</v>
+        <v>0.0002941817587420862</v>
       </c>
       <c r="AA23" t="n">
         <v>0.6840452421968823</v>
@@ -2407,25 +2407,25 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>2.723673423385398</v>
+        <v>2.723673423385392</v>
       </c>
       <c r="E24" t="n">
         <v>1.490955395196202</v>
       </c>
       <c r="F24" t="n">
-        <v>3.80873958450243</v>
+        <v>3.808739584502431</v>
       </c>
       <c r="G24" t="n">
         <v>9.129064855827432</v>
       </c>
       <c r="H24" t="n">
-        <v>6.25180258411556</v>
+        <v>6.251802584115562</v>
       </c>
       <c r="I24" t="n">
         <v>11.91729877358658</v>
       </c>
       <c r="J24" t="n">
-        <v>5.536600247728041</v>
+        <v>5.536600247728044</v>
       </c>
       <c r="K24" t="n">
         <v>2.390888234141769</v>
@@ -2434,7 +2434,7 @@
         <v>8.821277681436619</v>
       </c>
       <c r="M24" t="n">
-        <v>3.955357154191646</v>
+        <v>3.955357154191647</v>
       </c>
       <c r="N24" t="n">
         <v>1.772221758269874</v>
@@ -2467,13 +2467,13 @@
         <v>0.3082639600135872</v>
       </c>
       <c r="X24" t="n">
-        <v>1.96552926165905</v>
+        <v>1.965529261659049</v>
       </c>
       <c r="Y24" t="n">
         <v>0.2143425754761606</v>
       </c>
       <c r="Z24" t="n">
-        <v>0.003146280719951269</v>
+        <v>0.00314628071995127</v>
       </c>
       <c r="AA24" t="n">
         <v>0.6360529525595144</v>
@@ -2502,7 +2502,7 @@
         <v>-1.037782656273256</v>
       </c>
       <c r="H25" t="n">
-        <v>-1.520338493934608</v>
+        <v>-1.520338493934606</v>
       </c>
       <c r="I25" t="n">
         <v>-0.6844815424449031</v>
@@ -2541,13 +2541,13 @@
         <v>1.159954381138917</v>
       </c>
       <c r="U25" t="n">
-        <v>4.347896562379155</v>
+        <v>4.347896562379154</v>
       </c>
       <c r="V25" t="n">
         <v>1.228635644536459</v>
       </c>
       <c r="W25" t="n">
-        <v>0.4230250176054886</v>
+        <v>0.4230250176054887</v>
       </c>
       <c r="X25" t="n">
         <v>2.380913715454029</v>
@@ -2556,7 +2556,7 @@
         <v>0.2584493265627747</v>
       </c>
       <c r="Z25" t="n">
-        <v>0.006996559222319123</v>
+        <v>0.006996559222319119</v>
       </c>
       <c r="AA25" t="n">
         <v>0.7270367047817555</v>
@@ -2573,19 +2573,19 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>9.767414988167801</v>
+        <v>9.767414988167797</v>
       </c>
       <c r="E26" t="n">
-        <v>7.188870908652624</v>
+        <v>7.188870908652626</v>
       </c>
       <c r="F26" t="n">
-        <v>12.1158741194888</v>
+        <v>12.11587411948881</v>
       </c>
       <c r="G26" t="n">
         <v>4.476268095300764</v>
       </c>
       <c r="H26" t="n">
-        <v>1.663685324205231</v>
+        <v>1.663685324205229</v>
       </c>
       <c r="I26" t="n">
         <v>7.387535851504616</v>
@@ -2600,10 +2600,10 @@
         <v>0.5116554029017948</v>
       </c>
       <c r="M26" t="n">
-        <v>-3.475775878866955</v>
+        <v>-3.475775878866953</v>
       </c>
       <c r="N26" t="n">
-        <v>-4.705586799136627</v>
+        <v>-4.705586799136626</v>
       </c>
       <c r="O26" t="n">
         <v>-1.788209148274717</v>
@@ -2621,7 +2621,7 @@
         <v>1.658242959089466</v>
       </c>
       <c r="T26" t="n">
-        <v>0.6295745337117493</v>
+        <v>0.6295745337117492</v>
       </c>
       <c r="U26" t="n">
         <v>3.031749628473495</v>
@@ -2630,19 +2630,19 @@
         <v>0.8957983544574419</v>
       </c>
       <c r="W26" t="n">
-        <v>0.2418515013534995</v>
+        <v>0.2418515013534996</v>
       </c>
       <c r="X26" t="n">
-        <v>1.859829982231305</v>
+        <v>1.859829982231304</v>
       </c>
       <c r="Y26" t="n">
         <v>0.2028186353883171</v>
       </c>
       <c r="Z26" t="n">
-        <v>0.001806652439752413</v>
+        <v>0.001806652439752415</v>
       </c>
       <c r="AA26" t="n">
-        <v>0.6444078926656911</v>
+        <v>0.644407892665691</v>
       </c>
     </row>
     <row r="27">
@@ -2656,7 +2656,7 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>41.56860877774913</v>
+        <v>41.56860877774912</v>
       </c>
       <c r="E27" t="n">
         <v>34.87012960633632</v>
@@ -2680,10 +2680,10 @@
         <v>14.14371608134667</v>
       </c>
       <c r="L27" t="n">
-        <v>22.77751245624525</v>
+        <v>22.77751245624526</v>
       </c>
       <c r="M27" t="n">
-        <v>-0.8376889964913339</v>
+        <v>-0.8376889964913357</v>
       </c>
       <c r="N27" t="n">
         <v>-1.007051258608472</v>
@@ -2692,7 +2692,7 @@
         <v>0.2177198642121851</v>
       </c>
       <c r="P27" t="n">
-        <v>-0.1471251599563783</v>
+        <v>-0.1471251599563788</v>
       </c>
       <c r="Q27" t="n">
         <v>-0.3083938324112616</v>
@@ -2701,28 +2701,28 @@
         <v>0.3743375374193905</v>
       </c>
       <c r="S27" t="n">
-        <v>-0.06171944881254898</v>
+        <v>-0.06171944881254876</v>
       </c>
       <c r="T27" t="n">
         <v>-0.1542270013448912</v>
       </c>
       <c r="U27" t="n">
-        <v>0.205065285787581</v>
+        <v>0.2050652857875814</v>
       </c>
       <c r="V27" t="n">
         <v>-0.03762680788560235</v>
       </c>
       <c r="W27" t="n">
-        <v>-0.06982827496410227</v>
+        <v>-0.06982827496410232</v>
       </c>
       <c r="X27" t="n">
-        <v>0.09883880701178938</v>
+        <v>0.0988388070117896</v>
       </c>
       <c r="Y27" t="n">
-        <v>-0.008647549084811496</v>
+        <v>-0.008647549084811468</v>
       </c>
       <c r="Z27" t="n">
-        <v>-0.004519637483657025</v>
+        <v>-0.004519637483657017</v>
       </c>
       <c r="AA27" t="n">
         <v>0.04264878658957905</v>
@@ -2739,10 +2739,10 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>2.344530538775079</v>
+        <v>2.344530538775077</v>
       </c>
       <c r="E28" t="n">
-        <v>1.758755524766474</v>
+        <v>1.758755524766473</v>
       </c>
       <c r="F28" t="n">
         <v>2.753967911216343</v>
@@ -2754,10 +2754,10 @@
         <v>10.8654298371986</v>
       </c>
       <c r="I28" t="n">
-        <v>15.97659788241033</v>
+        <v>15.97659788241032</v>
       </c>
       <c r="J28" t="n">
-        <v>17.65792013203945</v>
+        <v>17.65792013203946</v>
       </c>
       <c r="K28" t="n">
         <v>13.16749129314458</v>
@@ -2781,7 +2781,7 @@
         <v>1.896028746628212</v>
       </c>
       <c r="R28" t="n">
-        <v>5.894141729727791</v>
+        <v>5.89414172972779</v>
       </c>
       <c r="S28" t="n">
         <v>1.870593512503739</v>
@@ -2822,19 +2822,19 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>19.56470332671695</v>
+        <v>19.56470332671694</v>
       </c>
       <c r="E29" t="n">
         <v>14.87647989445595</v>
       </c>
       <c r="F29" t="n">
-        <v>23.66570073305719</v>
+        <v>23.6657007330572</v>
       </c>
       <c r="G29" t="n">
-        <v>9.416996478311832</v>
+        <v>9.416996478311834</v>
       </c>
       <c r="H29" t="n">
-        <v>4.801946696848486</v>
+        <v>4.801946696848485</v>
       </c>
       <c r="I29" t="n">
         <v>14.29553440260017</v>
@@ -2846,7 +2846,7 @@
         <v>-13.33844802236376</v>
       </c>
       <c r="L29" t="n">
-        <v>-10.93646219833097</v>
+        <v>-10.93646219833096</v>
       </c>
       <c r="M29" t="n">
         <v>-18.12957228158955</v>
@@ -2858,7 +2858,7 @@
         <v>-18.45873479159524</v>
       </c>
       <c r="P29" t="n">
-        <v>0.7801584805759063</v>
+        <v>0.7801584805759054</v>
       </c>
       <c r="Q29" t="n">
         <v>0.1017339834925277</v>
@@ -2876,7 +2876,7 @@
         <v>2.282807642778485</v>
       </c>
       <c r="V29" t="n">
-        <v>0.7515042156830001</v>
+        <v>0.751504215683</v>
       </c>
       <c r="W29" t="n">
         <v>0.1529349441628115</v>
@@ -2888,7 +2888,7 @@
         <v>0.183711155959074</v>
       </c>
       <c r="Z29" t="n">
-        <v>-0.001602150425639931</v>
+        <v>-0.001602150425639925</v>
       </c>
       <c r="AA29" t="n">
         <v>0.6333396311815926</v>
@@ -2926,7 +2926,7 @@
         <v>7.013366640653846</v>
       </c>
       <c r="K30" t="n">
-        <v>4.260722803912346</v>
+        <v>4.260722803912345</v>
       </c>
       <c r="L30" t="n">
         <v>10.16756464665555</v>
@@ -2971,7 +2971,7 @@
         <v>0.1499261248331938</v>
       </c>
       <c r="Z30" t="n">
-        <v>0.0009525082326033063</v>
+        <v>0.0009525082326033083</v>
       </c>
       <c r="AA30" t="n">
         <v>0.4793631762852365</v>
@@ -2994,7 +2994,7 @@
         <v>10.6670812845273</v>
       </c>
       <c r="F31" t="n">
-        <v>13.40969197270922</v>
+        <v>13.40969197270921</v>
       </c>
       <c r="G31" t="n">
         <v>17.73395539615574</v>
@@ -3006,16 +3006,16 @@
         <v>20.17254157105567</v>
       </c>
       <c r="J31" t="n">
-        <v>26.89429447049661</v>
+        <v>26.8942944704966</v>
       </c>
       <c r="K31" t="n">
         <v>22.05597656858466</v>
       </c>
       <c r="L31" t="n">
-        <v>31.2389084122173</v>
+        <v>31.23890841221729</v>
       </c>
       <c r="M31" t="n">
-        <v>20.96981513240048</v>
+        <v>20.96981513240047</v>
       </c>
       <c r="N31" t="n">
         <v>16.54998488280979</v>
@@ -3036,7 +3036,7 @@
         <v>1.440075165613684</v>
       </c>
       <c r="T31" t="n">
-        <v>0.6683851853290567</v>
+        <v>0.6683851853290566</v>
       </c>
       <c r="U31" t="n">
         <v>2.597565622348434</v>
@@ -3051,10 +3051,10 @@
         <v>1.194633781317286</v>
       </c>
       <c r="Y31" t="n">
-        <v>0.113247126466932</v>
+        <v>0.1132471264669321</v>
       </c>
       <c r="Z31" t="n">
-        <v>0.003535973957648456</v>
+        <v>0.003535973957648454</v>
       </c>
       <c r="AA31" t="n">
         <v>0.3201729864847113</v>
@@ -3071,13 +3071,13 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>5.206613374590674</v>
+        <v>5.206613374590677</v>
       </c>
       <c r="E32" t="n">
-        <v>4.969165771070872</v>
+        <v>4.969165771070871</v>
       </c>
       <c r="F32" t="n">
-        <v>5.10255743772284</v>
+        <v>5.102557437722837</v>
       </c>
       <c r="G32" t="n">
         <v>22.38675215668241</v>
@@ -3089,7 +3089,7 @@
         <v>24.70230449313764</v>
       </c>
       <c r="J32" t="n">
-        <v>34.21423059240194</v>
+        <v>34.21423059240193</v>
       </c>
       <c r="K32" t="n">
         <v>27.89812964387692</v>
@@ -3107,7 +3107,7 @@
         <v>33.70591987990476</v>
       </c>
       <c r="P32" t="n">
-        <v>4.071340656023793</v>
+        <v>4.071340656023794</v>
       </c>
       <c r="Q32" t="n">
         <v>2.228975986632813</v>
@@ -3116,7 +3116,7 @@
         <v>6.641152780976658</v>
       </c>
       <c r="S32" t="n">
-        <v>1.672088533556787</v>
+        <v>1.672088533556788</v>
       </c>
       <c r="T32" t="n">
         <v>0.8296548529587687</v>
@@ -3137,7 +3137,7 @@
         <v>0.1247710665547755</v>
       </c>
       <c r="Z32" t="n">
-        <v>0.004875602237847313</v>
+        <v>0.00487560223784731</v>
       </c>
       <c r="AA32" t="n">
         <v>0.3118180463785347</v>
@@ -3154,7 +3154,7 @@
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>16.3732508970383</v>
+        <v>16.37325089703829</v>
       </c>
       <c r="E33" t="n">
         <v>13.86601696739122</v>
@@ -3178,7 +3178,7 @@
         <v>18.40311233945606</v>
       </c>
       <c r="L33" t="n">
-        <v>28.03504693066983</v>
+        <v>28.03504693066984</v>
       </c>
       <c r="M33" t="n">
         <v>14.16379901645585</v>
@@ -3190,13 +3190,13 @@
         <v>17.55371921262046</v>
       </c>
       <c r="P33" t="n">
-        <v>2.51476277667259</v>
+        <v>2.514762776672591</v>
       </c>
       <c r="Q33" t="n">
         <v>1.272203633616588</v>
       </c>
       <c r="R33" t="n">
-        <v>4.303210682707946</v>
+        <v>4.303210682707947</v>
       </c>
       <c r="S33" t="n">
         <v>1.160320865749326</v>
@@ -3220,7 +3220,7 @@
         <v>0.09987565264476944</v>
       </c>
       <c r="Z33" t="n">
-        <v>0.001524413506058792</v>
+        <v>0.001524413506058794</v>
       </c>
       <c r="AA33" t="n">
         <v>0.2903223150860981</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>31.84493161647138</v>
+        <v>31.84493161647137</v>
       </c>
       <c r="E34" t="n">
         <v>26.04229925613394</v>
@@ -3255,13 +3255,13 @@
         <v>33.98853867324679</v>
       </c>
       <c r="J34" t="n">
-        <v>4.872401115015363</v>
+        <v>4.872401115015364</v>
       </c>
       <c r="K34" t="n">
         <v>2.281610206158112</v>
       </c>
       <c r="L34" t="n">
-        <v>8.342673209751773</v>
+        <v>8.342673209751778</v>
       </c>
       <c r="M34" t="n">
         <v>-8.337777673044723</v>
@@ -3273,7 +3273,7 @@
         <v>-7.897544625998759</v>
       </c>
       <c r="P34" t="n">
-        <v>0.2482063089777751</v>
+        <v>0.2482063089777746</v>
       </c>
       <c r="Q34" t="n">
         <v>-0.1331424101835585</v>
@@ -3282,19 +3282,19 @@
         <v>0.8787271639523757</v>
       </c>
       <c r="S34" t="n">
-        <v>0.4748070444418118</v>
+        <v>0.474807044441812</v>
       </c>
       <c r="T34" t="n">
         <v>0.05311867628470102</v>
       </c>
       <c r="U34" t="n">
-        <v>1.099681650958413</v>
+        <v>1.099681650958414</v>
       </c>
       <c r="V34" t="n">
         <v>0.3061999753621537</v>
       </c>
       <c r="W34" t="n">
-        <v>0.02863108439874798</v>
+        <v>0.0286310843987479</v>
       </c>
       <c r="X34" t="n">
         <v>0.771642167724057</v>
@@ -3303,7 +3303,7 @@
         <v>0.07503216760844578</v>
       </c>
       <c r="Z34" t="n">
-        <v>-0.003281631773136233</v>
+        <v>-0.003281631773136226</v>
       </c>
       <c r="AA34" t="n">
         <v>0.2980364635165145</v>
@@ -3338,16 +3338,16 @@
         <v>16.1634404055376</v>
       </c>
       <c r="J35" t="n">
-        <v>2.358540152789768</v>
+        <v>2.358540152789772</v>
       </c>
       <c r="K35" t="n">
         <v>-0.2815613030057964</v>
       </c>
       <c r="L35" t="n">
-        <v>5.454000802765341</v>
+        <v>5.454000802765343</v>
       </c>
       <c r="M35" t="n">
-        <v>-1.809040827454561</v>
+        <v>-1.80904082745456</v>
       </c>
       <c r="N35" t="n">
         <v>-2.97806725538803</v>
@@ -3374,19 +3374,19 @@
         <v>2.772327487047371</v>
       </c>
       <c r="V35" t="n">
-        <v>0.8337153094128371</v>
+        <v>0.833715309412837</v>
       </c>
       <c r="W35" t="n">
         <v>0.2369328591114964</v>
       </c>
       <c r="X35" t="n">
-        <v>1.717078754950112</v>
+        <v>1.717078754950111</v>
       </c>
       <c r="Y35" t="n">
         <v>0.1865012654520906</v>
       </c>
       <c r="Z35" t="n">
-        <v>0.001278755602371167</v>
+        <v>0.00127875560237117</v>
       </c>
       <c r="AA35" t="n">
         <v>0.5801336066400556</v>
@@ -3403,7 +3403,7 @@
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>-3.832389194737839</v>
+        <v>-3.832389194737837</v>
       </c>
       <c r="E36" t="n">
         <v>-3.254043473872994</v>
@@ -3415,10 +3415,10 @@
         <v>8.512435324408504</v>
       </c>
       <c r="H36" t="n">
-        <v>6.979359298173515</v>
+        <v>6.979359298173517</v>
       </c>
       <c r="I36" t="n">
-        <v>9.675707724394586</v>
+        <v>9.675707724394584</v>
       </c>
       <c r="J36" t="n">
         <v>20.98253750151973</v>
@@ -3469,7 +3469,7 @@
         <v>0.2055568160076513</v>
       </c>
       <c r="Z36" t="n">
-        <v>0.006142415015170016</v>
+        <v>0.006142415015170013</v>
       </c>
       <c r="AA36" t="n">
         <v>0.5619919884013009</v>
@@ -3498,13 +3498,13 @@
         <v>10.46171212884859</v>
       </c>
       <c r="H37" t="n">
-        <v>6.317817481936014</v>
+        <v>6.317817481936013</v>
       </c>
       <c r="I37" t="n">
         <v>14.71580027255271</v>
       </c>
       <c r="J37" t="n">
-        <v>-5.181231880928571</v>
+        <v>-5.181231880928568</v>
       </c>
       <c r="K37" t="n">
         <v>-6.711963193486678</v>
@@ -3513,10 +3513,10 @@
         <v>-2.757572237495193</v>
       </c>
       <c r="M37" t="n">
-        <v>-9.865144741092216</v>
+        <v>-9.865144741092212</v>
       </c>
       <c r="N37" t="n">
-        <v>-9.88097525859739</v>
+        <v>-9.880975258597386</v>
       </c>
       <c r="O37" t="n">
         <v>-9.159671620260323</v>
@@ -3543,7 +3543,7 @@
         <v>0.7860440272098377</v>
       </c>
       <c r="W37" t="n">
-        <v>0.191446258610619</v>
+        <v>0.1914462586106189</v>
       </c>
       <c r="X37" t="n">
         <v>1.672516895239539</v>
@@ -3552,7 +3552,7 @@
         <v>0.1836592270853916</v>
       </c>
       <c r="Z37" t="n">
-        <v>-0.0001472938782334267</v>
+        <v>-0.0001472938782334223</v>
       </c>
       <c r="AA37" t="n">
         <v>0.6041297514587396</v>
@@ -3596,7 +3596,7 @@
         <v>21.23512701447775</v>
       </c>
       <c r="M38" t="n">
-        <v>3.051650306882799</v>
+        <v>3.051650306882797</v>
       </c>
       <c r="N38" t="n">
         <v>1.874018396033218</v>
@@ -3614,7 +3614,7 @@
         <v>1.787326854280236</v>
       </c>
       <c r="S38" t="n">
-        <v>0.4260106226914553</v>
+        <v>0.4260106226914551</v>
       </c>
       <c r="T38" t="n">
         <v>0.09180501382911521</v>
@@ -3626,16 +3626,16 @@
         <v>0.1867364471112539</v>
       </c>
       <c r="W38" t="n">
-        <v>0.01339675423306175</v>
+        <v>0.01339675423306169</v>
       </c>
       <c r="X38" t="n">
         <v>0.5104196809076446</v>
       </c>
       <c r="Y38" t="n">
-        <v>0.03840509811586648</v>
+        <v>0.03840509811586652</v>
       </c>
       <c r="Z38" t="n">
-        <v>-0.002153022595497587</v>
+        <v>-0.002153022595497584</v>
       </c>
       <c r="AA38" t="n">
         <v>0.1680561534388423</v>
@@ -3652,13 +3652,13 @@
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>27.91903130409623</v>
+        <v>27.91903130409622</v>
       </c>
       <c r="E39" t="n">
         <v>22.4950680341413</v>
       </c>
       <c r="F39" t="n">
-        <v>32.33618366767187</v>
+        <v>32.33618366767186</v>
       </c>
       <c r="G39" t="n">
         <v>24.19333358808321</v>
@@ -3670,13 +3670,13 @@
         <v>30.34950543437558</v>
       </c>
       <c r="J39" t="n">
-        <v>0.3641319016932911</v>
+        <v>0.3641319016932929</v>
       </c>
       <c r="K39" t="n">
         <v>-1.868508023967614</v>
       </c>
       <c r="L39" t="n">
-        <v>3.563743207012042</v>
+        <v>3.563743207012045</v>
       </c>
       <c r="M39" t="n">
         <v>-11.04613085875554</v>
@@ -3688,7 +3688,7 @@
         <v>-10.86179527742052</v>
       </c>
       <c r="P39" t="n">
-        <v>0.3751399189365672</v>
+        <v>0.3751399189365667</v>
       </c>
       <c r="Q39" t="n">
         <v>-0.07593310014680688</v>
@@ -3697,19 +3697,19 @@
         <v>1.050127657679372</v>
       </c>
       <c r="S39" t="n">
-        <v>0.668216012470695</v>
+        <v>0.6682160124706953</v>
       </c>
       <c r="T39" t="n">
         <v>0.1298722027624842</v>
       </c>
       <c r="U39" t="n">
-        <v>1.407582934423062</v>
+        <v>1.407582934423063</v>
       </c>
       <c r="V39" t="n">
         <v>0.4339403737875676</v>
       </c>
       <c r="W39" t="n">
-        <v>0.06842615690610149</v>
+        <v>0.06842615690610138</v>
       </c>
       <c r="X39" t="n">
         <v>1.01628909453387</v>
@@ -3718,7 +3718,7 @@
         <v>0.1058193737465797</v>
       </c>
       <c r="Z39" t="n">
-        <v>-0.002897770269764548</v>
+        <v>-0.002897770269764541</v>
       </c>
       <c r="AA39" t="n">
         <v>0.3883794240629955</v>
@@ -3735,13 +3735,13 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>-5.325122846654967</v>
+        <v>-5.325122846654969</v>
       </c>
       <c r="E40" t="n">
         <v>-5.255211509660366</v>
       </c>
       <c r="F40" t="n">
-        <v>-5.146714691016788</v>
+        <v>-5.146714691016784</v>
       </c>
       <c r="G40" t="n">
         <v>-2.08249830681001</v>
@@ -3750,16 +3750,16 @@
         <v>-3.036209279022135</v>
       </c>
       <c r="I40" t="n">
-        <v>-1.10474741239744</v>
+        <v>-1.104747412397437</v>
       </c>
       <c r="J40" t="n">
-        <v>4.572784315699254</v>
+        <v>4.572784315699256</v>
       </c>
       <c r="K40" t="n">
-        <v>1.893634233144644</v>
+        <v>1.893634233144642</v>
       </c>
       <c r="L40" t="n">
-        <v>7.246209160244351</v>
+        <v>7.246209160244348</v>
       </c>
       <c r="M40" t="n">
         <v>8.053020084425462</v>
@@ -3774,7 +3774,7 @@
         <v>4.029934941942289</v>
       </c>
       <c r="Q40" t="n">
-        <v>2.074903660973361</v>
+        <v>2.074903660973362</v>
       </c>
       <c r="R40" t="n">
         <v>6.388719501612774</v>
@@ -3801,10 +3801,10 @@
         <v>0.2585012554364571</v>
       </c>
       <c r="Z40" t="n">
-        <v>0.005541702674912618</v>
+        <v>0.005541702674912616</v>
       </c>
       <c r="AA40" t="n">
-        <v>0.7562465845046086</v>
+        <v>0.7562465845046085</v>
       </c>
     </row>
     <row r="41">
@@ -3818,13 +3818,13 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>-8.639959744352289</v>
+        <v>-8.639959744352279</v>
       </c>
       <c r="E41" t="n">
         <v>-7.057600261995439</v>
       </c>
       <c r="F41" t="n">
-        <v>-9.889818905000007</v>
+        <v>-9.889818905000004</v>
       </c>
       <c r="G41" t="n">
         <v>1.624971013363204</v>
@@ -3869,13 +3869,13 @@
         <v>1.198640718683332</v>
       </c>
       <c r="U41" t="n">
-        <v>4.260515630029687</v>
+        <v>4.260515630029686</v>
       </c>
       <c r="V41" t="n">
         <v>1.109172116285559</v>
       </c>
       <c r="W41" t="n">
-        <v>0.4077906874398024</v>
+        <v>0.4077906874398025</v>
       </c>
       <c r="X41" t="n">
         <v>2.119691228637617</v>
@@ -3884,7 +3884,7 @@
         <v>0.2218222570701954</v>
       </c>
       <c r="Z41" t="n">
-        <v>0.008125168399957767</v>
+        <v>0.00812516839995776</v>
       </c>
       <c r="AA41" t="n">
         <v>0.5970563947040832</v>
@@ -3928,7 +3928,7 @@
         <v>19.85615696983406</v>
       </c>
       <c r="M42" t="n">
-        <v>5.89937147595851</v>
+        <v>5.899371475958509</v>
       </c>
       <c r="N42" t="n">
         <v>4.046588974336809</v>
@@ -3946,19 +3946,19 @@
         <v>3.216669262221088</v>
       </c>
       <c r="S42" t="n">
-        <v>0.9865747122492736</v>
+        <v>0.9865747122492737</v>
       </c>
       <c r="T42" t="n">
         <v>0.3760285320093837</v>
       </c>
       <c r="U42" t="n">
-        <v>1.868015293468833</v>
+        <v>1.868015293468834</v>
       </c>
       <c r="V42" t="n">
         <v>0.4767570554889192</v>
       </c>
       <c r="W42" t="n">
-        <v>0.1314982136955762</v>
+        <v>0.1314982136955761</v>
       </c>
       <c r="X42" t="n">
         <v>1.02389625433212</v>
@@ -3967,7 +3967,7 @@
         <v>0.09992758151845187</v>
       </c>
       <c r="Z42" t="n">
-        <v>6.955695865228703e-05</v>
+        <v>6.955695865229049e-05</v>
       </c>
       <c r="AA42" t="n">
         <v>0.3195321948089511</v>
@@ -3996,10 +3996,10 @@
         <v>13.12446579848505</v>
       </c>
       <c r="H43" t="n">
-        <v>9.395321497607652</v>
+        <v>9.39532149760765</v>
       </c>
       <c r="I43" t="n">
-        <v>16.72035085531174</v>
+        <v>16.72035085531175</v>
       </c>
       <c r="J43" t="n">
         <v>7.086645277924848</v>
@@ -4029,7 +4029,7 @@
         <v>3.543117158595075</v>
       </c>
       <c r="S43" t="n">
-        <v>1.300558630253226</v>
+        <v>1.300558630253225</v>
       </c>
       <c r="T43" t="n">
         <v>0.4913440819586878</v>
@@ -4038,7 +4038,7 @@
         <v>2.435338718359607</v>
       </c>
       <c r="V43" t="n">
-        <v>0.6665804989589379</v>
+        <v>0.6665804989589378</v>
       </c>
       <c r="W43" t="n">
         <v>0.1762119284449327</v>
@@ -4050,7 +4050,7 @@
         <v>0.1470321575928123</v>
       </c>
       <c r="Z43" t="n">
-        <v>0.0009813152994052189</v>
+        <v>0.0009813152994052204</v>
       </c>
       <c r="AA43" t="n">
         <v>0.4741494413810674</v>
@@ -4067,7 +4067,7 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>-7.452757799774073</v>
+        <v>-7.452757799774069</v>
       </c>
       <c r="E44" t="n">
         <v>-5.928853461036852</v>
@@ -4076,13 +4076,13 @@
         <v>-8.795858702352044</v>
       </c>
       <c r="G44" t="n">
-        <v>8.655130697447779</v>
+        <v>8.655130697447781</v>
       </c>
       <c r="H44" t="n">
-        <v>7.727168464555342</v>
+        <v>7.727168464555344</v>
       </c>
       <c r="I44" t="n">
-        <v>9.068599331314765</v>
+        <v>9.068599331314767</v>
       </c>
       <c r="J44" t="n">
         <v>28.66886680978008</v>
@@ -4094,7 +4094,7 @@
         <v>33.22721524624488</v>
       </c>
       <c r="M44" t="n">
-        <v>29.5819342831224</v>
+        <v>29.58193428312239</v>
       </c>
       <c r="N44" t="n">
         <v>23.47284447477129</v>
@@ -4133,7 +4133,7 @@
         <v>0.2026109198935874</v>
       </c>
       <c r="Z44" t="n">
-        <v>0.007626078629378434</v>
+        <v>0.007626078629378429</v>
       </c>
       <c r="AA44" t="n">
         <v>0.5275683737742788</v>
@@ -4168,16 +4168,16 @@
         <v>36.60019764908564</v>
       </c>
       <c r="J45" t="n">
-        <v>9.453948965608438</v>
+        <v>9.453948965608436</v>
       </c>
       <c r="K45" t="n">
         <v>6.627811374680048</v>
       </c>
       <c r="L45" t="n">
-        <v>13.08892013306674</v>
+        <v>13.08892013306675</v>
       </c>
       <c r="M45" t="n">
-        <v>-5.421100860474223</v>
+        <v>-5.421100860474226</v>
       </c>
       <c r="N45" t="n">
         <v>-5.312289237711381</v>
@@ -4186,7 +4186,7 @@
         <v>-4.674131486558888</v>
       </c>
       <c r="P45" t="n">
-        <v>0.1261162453715761</v>
+        <v>0.1261162453715756</v>
       </c>
       <c r="Q45" t="n">
         <v>-0.1891438895144948</v>
@@ -4201,22 +4201,22 @@
         <v>-0.03127315079433457</v>
       </c>
       <c r="U45" t="n">
-        <v>0.7820845390860596</v>
+        <v>0.78208453908606</v>
       </c>
       <c r="V45" t="n">
         <v>0.165328106260578</v>
       </c>
       <c r="W45" t="n">
-        <v>-0.0181392741616756</v>
+        <v>-0.01813927416167566</v>
       </c>
       <c r="X45" t="n">
         <v>0.5066161010085198</v>
       </c>
       <c r="Y45" t="n">
-        <v>0.04135099422993038</v>
+        <v>0.04135099422993041</v>
       </c>
       <c r="Z45" t="n">
-        <v>-0.003636686209706004</v>
+        <v>-0.003636686209705999</v>
       </c>
       <c r="AA45" t="n">
         <v>0.2024797680658645</v>
@@ -4233,13 +4233,13 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>5.388760613910928</v>
+        <v>5.388760613910935</v>
       </c>
       <c r="E46" t="n">
         <v>5.049661180629313</v>
       </c>
       <c r="F46" t="n">
-        <v>5.54819789983796</v>
+        <v>5.548197899837959</v>
       </c>
       <c r="G46" t="n">
         <v>13.55255191760287</v>
@@ -4257,7 +4257,7 @@
         <v>24.92450904412843</v>
       </c>
       <c r="L46" t="n">
-        <v>34.57350221146381</v>
+        <v>34.5735022114638</v>
       </c>
       <c r="M46" t="n">
         <v>26.94253674090637</v>
@@ -4269,13 +4269,13 @@
         <v>32.29664415659167</v>
       </c>
       <c r="P46" t="n">
-        <v>4.227335544098141</v>
+        <v>4.227335544098142</v>
       </c>
       <c r="Q46" t="n">
         <v>2.293432280904459</v>
       </c>
       <c r="R46" t="n">
-        <v>6.792929565407648</v>
+        <v>6.792929565407649</v>
       </c>
       <c r="S46" t="n">
         <v>1.778096679921093</v>
@@ -4290,16 +4290,16 @@
         <v>0.7308055215109653</v>
       </c>
       <c r="W46" t="n">
-        <v>0.2708200136291447</v>
+        <v>0.2708200136291448</v>
       </c>
       <c r="X46" t="n">
         <v>1.4227051481205</v>
       </c>
       <c r="Y46" t="n">
-        <v>0.1381944692506205</v>
+        <v>0.1381944692506206</v>
       </c>
       <c r="Z46" t="n">
-        <v>0.005432306142030471</v>
+        <v>0.005432306142030467</v>
       </c>
       <c r="AA46" t="n">
         <v>0.3708785975000009</v>
@@ -4343,7 +4343,7 @@
         <v>37.56022385672453</v>
       </c>
       <c r="M47" t="n">
-        <v>19.78882901473716</v>
+        <v>19.78882901473715</v>
       </c>
       <c r="N47" t="n">
         <v>16.10493384825479</v>
@@ -4352,7 +4352,7 @@
         <v>23.74138300348209</v>
       </c>
       <c r="P47" t="n">
-        <v>2.265739103107599</v>
+        <v>2.2657391031076</v>
       </c>
       <c r="Q47" t="n">
         <v>1.1589928442489</v>
@@ -4361,7 +4361,7 @@
         <v>3.957139077037953</v>
       </c>
       <c r="S47" t="n">
-        <v>0.7589361260807967</v>
+        <v>0.7589361260807966</v>
       </c>
       <c r="T47" t="n">
         <v>0.3455996436772671</v>
@@ -4373,19 +4373,19 @@
         <v>0.2426845994887674</v>
       </c>
       <c r="W47" t="n">
-        <v>0.08344409707560652</v>
+        <v>0.08344409707560649</v>
       </c>
       <c r="X47" t="n">
         <v>0.5384059806116183</v>
       </c>
       <c r="Y47" t="n">
-        <v>0.03540727312812013</v>
+        <v>0.03540727312812018</v>
       </c>
       <c r="Z47" t="n">
-        <v>0.0007854975661173349</v>
+        <v>0.0007854975661173353</v>
       </c>
       <c r="AA47" t="n">
-        <v>0.104422659088967</v>
+        <v>0.1044226590889671</v>
       </c>
     </row>
     <row r="48">
@@ -4405,7 +4405,7 @@
         <v>17.48226903550183</v>
       </c>
       <c r="F48" t="n">
-        <v>25.24448992718214</v>
+        <v>25.24448992718215</v>
       </c>
       <c r="G48" t="n">
         <v>19.10990983203287</v>
@@ -4417,13 +4417,13 @@
         <v>24.04861527635984</v>
       </c>
       <c r="J48" t="n">
-        <v>3.688749271173569</v>
+        <v>3.68874927117357</v>
       </c>
       <c r="K48" t="n">
         <v>1.196107389972365</v>
       </c>
       <c r="L48" t="n">
-        <v>6.865653926833794</v>
+        <v>6.865653926833797</v>
       </c>
       <c r="M48" t="n">
         <v>-4.865085623389955</v>
@@ -4444,10 +4444,10 @@
         <v>2.298257717245224</v>
       </c>
       <c r="S48" t="n">
-        <v>0.9916707231673417</v>
+        <v>0.9916707231673418</v>
       </c>
       <c r="T48" t="n">
-        <v>0.3144272926612123</v>
+        <v>0.3144272926612122</v>
       </c>
       <c r="U48" t="n">
         <v>1.926308740595187</v>
@@ -4465,7 +4465,7 @@
         <v>0.1278727492898867</v>
       </c>
       <c r="Z48" t="n">
-        <v>-0.0009726310185806208</v>
+        <v>-0.0009726310185806169</v>
       </c>
       <c r="AA48" t="n">
         <v>0.433871300174116</v>
@@ -4494,22 +4494,22 @@
         <v>-3.557840952870439</v>
       </c>
       <c r="H49" t="n">
-        <v>-3.850033343224418</v>
+        <v>-3.850033343224416</v>
       </c>
       <c r="I49" t="n">
         <v>-3.296140518283753</v>
       </c>
       <c r="J49" t="n">
-        <v>7.604287136095522</v>
+        <v>7.604287136095525</v>
       </c>
       <c r="K49" t="n">
-        <v>4.173917893499795</v>
+        <v>4.173917893499794</v>
       </c>
       <c r="L49" t="n">
-        <v>10.67885219776516</v>
+        <v>10.67885219776515</v>
       </c>
       <c r="M49" t="n">
-        <v>13.4007708123523</v>
+        <v>13.40077081235231</v>
       </c>
       <c r="N49" t="n">
         <v>9.26188061130185</v>
@@ -4545,10 +4545,10 @@
         <v>2.645939782169567</v>
       </c>
       <c r="Y49" t="n">
-        <v>0.2921304999412901</v>
+        <v>0.29213049994129</v>
       </c>
       <c r="Z49" t="n">
-        <v>0.007351613658888896</v>
+        <v>0.007351613658888893</v>
       </c>
       <c r="AA49" t="n">
         <v>0.8225934002324056</v>
@@ -4577,19 +4577,19 @@
         <v>12.26575268384354</v>
       </c>
       <c r="H50" t="n">
-        <v>7.853940719347415</v>
+        <v>7.853940719347417</v>
       </c>
       <c r="I50" t="n">
         <v>16.77054879861742</v>
       </c>
       <c r="J50" t="n">
-        <v>-5.327789155470576</v>
+        <v>-5.327789155470569</v>
       </c>
       <c r="K50" t="n">
         <v>-7.10412907027909</v>
       </c>
       <c r="L50" t="n">
-        <v>-2.692206078645668</v>
+        <v>-2.692206078645665</v>
       </c>
       <c r="M50" t="n">
         <v>-10.28179199481158</v>
@@ -4598,7 +4598,7 @@
         <v>-10.16437488913263</v>
       </c>
       <c r="O50" t="n">
-        <v>-9.677996596296548</v>
+        <v>-9.677996596296545</v>
       </c>
       <c r="P50" t="n">
         <v>1.480449976214333</v>
@@ -4619,7 +4619,7 @@
         <v>2.542111307524485</v>
       </c>
       <c r="V50" t="n">
-        <v>0.8123069685621613</v>
+        <v>0.8123069685621612</v>
       </c>
       <c r="W50" t="n">
         <v>0.2053968307167591</v>
@@ -4631,10 +4631,10 @@
         <v>0.1894471615661545</v>
       </c>
       <c r="Z50" t="n">
-        <v>-0.000204908011837251</v>
+        <v>-0.0002049080118372458</v>
       </c>
       <c r="AA50" t="n">
-        <v>0.6145572212670779</v>
+        <v>0.6145572212670778</v>
       </c>
     </row>
     <row r="51">
@@ -4654,7 +4654,7 @@
         <v>-20.03728293944897</v>
       </c>
       <c r="F51" t="n">
-        <v>-25.04286436893343</v>
+        <v>-25.04286436893342</v>
       </c>
       <c r="G51" t="n">
         <v>-13.8673838380104</v>
@@ -4666,13 +4666,13 @@
         <v>-15.29081244123541</v>
       </c>
       <c r="J51" t="n">
-        <v>6.567192566795729</v>
+        <v>6.567192566795732</v>
       </c>
       <c r="K51" t="n">
         <v>3.480580954106461</v>
       </c>
       <c r="L51" t="n">
-        <v>9.136466755997651</v>
+        <v>9.136466755997644</v>
       </c>
       <c r="M51" t="n">
         <v>17.29011011572643</v>
@@ -4705,7 +4705,7 @@
         <v>1.593870768634891</v>
       </c>
       <c r="W51" t="n">
-        <v>0.5530204053630762</v>
+        <v>0.5530204053630763</v>
       </c>
       <c r="X51" t="n">
         <v>3.057520656065422</v>
@@ -4714,7 +4714,7 @@
         <v>0.3391831471419681</v>
       </c>
       <c r="Z51" t="n">
-        <v>0.009718228547048333</v>
+        <v>0.009718228547048326</v>
       </c>
       <c r="AA51" t="n">
         <v>0.9480007670816688</v>
@@ -4731,13 +4731,13 @@
         <v>0</v>
       </c>
       <c r="D52" t="n">
-        <v>-4.211532079348157</v>
+        <v>-4.211532079348153</v>
       </c>
       <c r="E52" t="n">
         <v>-2.986243344302726</v>
       </c>
       <c r="F52" t="n">
-        <v>-5.392497502559459</v>
+        <v>-5.392497502559463</v>
       </c>
       <c r="G52" t="n">
         <v>12.97922954903992</v>
@@ -4758,7 +4758,7 @@
         <v>38.03882832840938</v>
       </c>
       <c r="M52" t="n">
-        <v>32.08196384197353</v>
+        <v>32.08196384197352</v>
       </c>
       <c r="N52" t="n">
         <v>25.76716327959036</v>
@@ -4797,7 +4797,7 @@
         <v>0.174717680995835</v>
       </c>
       <c r="Z52" t="n">
-        <v>0.007213410059204836</v>
+        <v>0.007213410059204832</v>
       </c>
       <c r="AA52" t="n">
         <v>0.442439148131967</v>
@@ -4838,7 +4838,7 @@
         <v>-1.280259208778993</v>
       </c>
       <c r="L53" t="n">
-        <v>3.465693968737753</v>
+        <v>3.465693968737757</v>
       </c>
       <c r="M53" t="n">
         <v>-10.42115997817648</v>
@@ -4850,7 +4850,7 @@
         <v>-10.08430781336618</v>
       </c>
       <c r="P53" t="n">
-        <v>0.3896705579943451</v>
+        <v>0.3896705579943447</v>
       </c>
       <c r="Q53" t="n">
         <v>-0.07230960802935948</v>
@@ -4859,7 +4859,7 @@
         <v>1.040315803031369</v>
       </c>
       <c r="S53" t="n">
-        <v>0.6245156016384065</v>
+        <v>0.6245156016384066</v>
       </c>
       <c r="T53" t="n">
         <v>0.1069573009587269</v>
@@ -4871,7 +4871,7 @@
         <v>0.3945459617590821</v>
       </c>
       <c r="W53" t="n">
-        <v>0.04750029874689124</v>
+        <v>0.04750029874689116</v>
       </c>
       <c r="X53" t="n">
         <v>0.9551516748166982</v>
@@ -4880,7 +4880,7 @@
         <v>0.09713747202543524</v>
       </c>
       <c r="Z53" t="n">
-        <v>-0.002811349069358811</v>
+        <v>-0.002811349069358805</v>
       </c>
       <c r="AA53" t="n">
         <v>0.3727382193504881</v>
@@ -4897,31 +4897,31 @@
         <v>0</v>
       </c>
       <c r="D54" t="n">
-        <v>4.472165491894183</v>
+        <v>4.472165491894178</v>
       </c>
       <c r="E54" t="n">
-        <v>2.432397476142957</v>
+        <v>2.432397476142956</v>
       </c>
       <c r="F54" t="n">
-        <v>6.403111922551597</v>
+        <v>6.403111922551601</v>
       </c>
       <c r="G54" t="n">
         <v>2.858230076201059</v>
       </c>
       <c r="H54" t="n">
-        <v>0.102052093621122</v>
+        <v>0.1020520936211202</v>
       </c>
       <c r="I54" t="n">
-        <v>5.803251138698117</v>
+        <v>5.803251138698119</v>
       </c>
       <c r="J54" t="n">
-        <v>-6.438162362041368</v>
+        <v>-6.438162362041364</v>
       </c>
       <c r="K54" t="n">
         <v>-7.993548948068632</v>
       </c>
       <c r="L54" t="n">
-        <v>-4.201908440988408</v>
+        <v>-4.201908440988412</v>
       </c>
       <c r="M54" t="n">
         <v>-6.600776318297136</v>
@@ -4933,7 +4933,7 @@
         <v>-5.270784775732704</v>
       </c>
       <c r="P54" t="n">
-        <v>2.463669969885901</v>
+        <v>2.4636699698859</v>
       </c>
       <c r="Q54" t="n">
         <v>1.115715646545505</v>
@@ -4963,7 +4963,7 @@
         <v>0.239393776007214</v>
       </c>
       <c r="Z54" t="n">
-        <v>0.002132899809520273</v>
+        <v>0.002132899809520276</v>
       </c>
       <c r="AA54" t="n">
         <v>0.7451783230205102</v>
@@ -4980,25 +4980,25 @@
         <v>0</v>
       </c>
       <c r="D55" t="n">
-        <v>7.713391212320099</v>
+        <v>7.713391212320095</v>
       </c>
       <c r="E55" t="n">
-        <v>5.375007592877084</v>
+        <v>5.375007592877083</v>
       </c>
       <c r="F55" t="n">
-        <v>9.806473122344181</v>
+        <v>9.806473122344185</v>
       </c>
       <c r="G55" t="n">
         <v>7.182328927793201</v>
       </c>
       <c r="H55" t="n">
-        <v>3.967870180322332</v>
+        <v>3.967870180322331</v>
       </c>
       <c r="I55" t="n">
         <v>10.46965864060168</v>
       </c>
       <c r="J55" t="n">
-        <v>-2.003171785990297</v>
+        <v>-2.003171785990293</v>
       </c>
       <c r="K55" t="n">
         <v>-4.039513656339111</v>
@@ -5007,7 +5007,7 @@
         <v>0.6097046411760836</v>
       </c>
       <c r="M55" t="n">
-        <v>-4.100746759446007</v>
+        <v>-4.100746759446006</v>
       </c>
       <c r="N55" t="n">
         <v>-5.130686244939485</v>
@@ -5022,7 +5022,7 @@
         <v>1.057298505802937</v>
       </c>
       <c r="R55" t="n">
-        <v>3.889188764265069</v>
+        <v>3.889188764265068</v>
       </c>
       <c r="S55" t="n">
         <v>1.701943369921755</v>
@@ -5043,10 +5043,10 @@
         <v>1.920967401948477</v>
       </c>
       <c r="Y55" t="n">
-        <v>0.2115005371094616</v>
+        <v>0.2115005371094615</v>
       </c>
       <c r="Z55" t="n">
-        <v>0.001720231239346676</v>
+        <v>0.001720231239346679</v>
       </c>
       <c r="AA55" t="n">
         <v>0.6600490973781984</v>
@@ -5063,13 +5063,13 @@
         <v>0</v>
       </c>
       <c r="D56" t="n">
-        <v>8.826981979626911</v>
+        <v>8.826981979626909</v>
       </c>
       <c r="E56" t="n">
         <v>7.643975758234727</v>
       </c>
       <c r="F56" t="n">
-        <v>9.560690310801514</v>
+        <v>9.56069031080151</v>
       </c>
       <c r="G56" t="n">
         <v>22.24405678364313</v>
@@ -5090,13 +5090,13 @@
         <v>31.40232380934111</v>
       </c>
       <c r="M56" t="n">
-        <v>19.92819699810206</v>
+        <v>19.92819699810205</v>
       </c>
       <c r="N56" t="n">
         <v>15.84148580647169</v>
       </c>
       <c r="O56" t="n">
-        <v>24.14769422055172</v>
+        <v>24.14769422055173</v>
       </c>
       <c r="P56" t="n">
         <v>3.356518521327588</v>
@@ -5120,7 +5120,7 @@
         <v>0.6604456062918465</v>
       </c>
       <c r="W56" t="n">
-        <v>0.2413406290454744</v>
+        <v>0.2413406290454743</v>
       </c>
       <c r="X56" t="n">
         <v>1.296529480845907</v>
@@ -5132,7 +5132,7 @@
         <v>0.003391938623638895</v>
       </c>
       <c r="AA56" t="n">
-        <v>0.3462416610055569</v>
+        <v>0.3462416610055568</v>
       </c>
     </row>
     <row r="57">
@@ -5146,25 +5146,25 @@
         <v>0</v>
       </c>
       <c r="D57" t="n">
-        <v>5.891287966539908</v>
+        <v>5.891287966539912</v>
       </c>
       <c r="E57" t="n">
-        <v>5.573786876329387</v>
+        <v>5.573786876329386</v>
       </c>
       <c r="F57" t="n">
-        <v>5.872357770104381</v>
+        <v>5.872357770104378</v>
       </c>
       <c r="G57" t="n">
         <v>21.48473187918493</v>
       </c>
       <c r="H57" t="n">
-        <v>18.57681355827714</v>
+        <v>18.57681355827715</v>
       </c>
       <c r="I57" t="n">
         <v>23.67493023010528</v>
       </c>
       <c r="J57" t="n">
-        <v>34.28750922967294</v>
+        <v>34.28750922967293</v>
       </c>
       <c r="K57" t="n">
         <v>28.09421258227313</v>
@@ -5182,13 +5182,13 @@
         <v>33.96508236792287</v>
       </c>
       <c r="P57" t="n">
-        <v>4.076184202376385</v>
+        <v>4.076184202376386</v>
       </c>
       <c r="Q57" t="n">
         <v>2.230183817338629</v>
       </c>
       <c r="R57" t="n">
-        <v>6.637882162760657</v>
+        <v>6.637882162760658</v>
       </c>
       <c r="S57" t="n">
         <v>1.657521729946025</v>
@@ -5212,10 +5212,10 @@
         <v>0.1218770993143941</v>
       </c>
       <c r="Z57" t="n">
-        <v>0.004904409304649224</v>
+        <v>0.004904409304649222</v>
       </c>
       <c r="AA57" t="n">
-        <v>0.3066043114743656</v>
+        <v>0.3066043114743655</v>
       </c>
     </row>
     <row r="58">
@@ -5229,7 +5229,7 @@
         <v>0</v>
       </c>
       <c r="D58" t="n">
-        <v>15.94433472168072</v>
+        <v>15.94433472168071</v>
       </c>
       <c r="E58" t="n">
         <v>12.20166990729209</v>
@@ -5241,13 +5241,13 @@
         <v>9.559691851351108</v>
       </c>
       <c r="H58" t="n">
-        <v>5.549755863230314</v>
+        <v>5.549755863230311</v>
       </c>
       <c r="I58" t="n">
-        <v>13.68842600952035</v>
+        <v>13.68842600952036</v>
       </c>
       <c r="J58" t="n">
-        <v>-5.107953243657569</v>
+        <v>-5.107953243657565</v>
       </c>
       <c r="K58" t="n">
         <v>-6.515880255090469</v>
@@ -5256,7 +5256,7 @@
         <v>-2.790255316919957</v>
       </c>
       <c r="M58" t="n">
-        <v>-9.656821114232532</v>
+        <v>-9.656821114232528</v>
       </c>
       <c r="N58" t="n">
         <v>-9.739275443329769</v>
@@ -5295,7 +5295,7 @@
         <v>0.1807652598450101</v>
       </c>
       <c r="Z58" t="n">
-        <v>-0.0001184868114315141</v>
+        <v>-0.0001184868114315106</v>
       </c>
       <c r="AA58" t="n">
         <v>0.5989160165545705</v>
@@ -5312,10 +5312,10 @@
         <v>0</v>
       </c>
       <c r="D59" t="n">
-        <v>8.324454626997928</v>
+        <v>8.324454626997934</v>
       </c>
       <c r="E59" t="n">
-        <v>7.119850062534654</v>
+        <v>7.119850062534655</v>
       </c>
       <c r="F59" t="n">
         <v>9.236530440535091</v>
@@ -5342,7 +5342,7 @@
         <v>18.26146194668966</v>
       </c>
       <c r="N59" t="n">
-        <v>14.1139662627231</v>
+        <v>14.11396626272309</v>
       </c>
       <c r="O59" t="n">
         <v>22.47925600922052</v>
@@ -5375,10 +5375,10 @@
         <v>1.4392807081271</v>
       </c>
       <c r="Y59" t="n">
-        <v>0.1440343326050659</v>
+        <v>0.144034332605066</v>
       </c>
       <c r="Z59" t="n">
-        <v>0.003919835461020141</v>
+        <v>0.00391983546102014</v>
       </c>
       <c r="AA59" t="n">
         <v>0.4105159470311922</v>
@@ -5395,25 +5395,25 @@
         <v>0</v>
       </c>
       <c r="D60" t="n">
-        <v>10.6490852254071</v>
+        <v>10.64908522540709</v>
       </c>
       <c r="E60" t="n">
-        <v>7.445196474782425</v>
+        <v>7.445196474782424</v>
       </c>
       <c r="F60" t="n">
-        <v>13.49480566304131</v>
+        <v>13.49480566304132</v>
       </c>
       <c r="G60" t="n">
-        <v>7.941653832251401</v>
+        <v>7.941653832251403</v>
       </c>
       <c r="H60" t="n">
-        <v>3.988122632646204</v>
+        <v>3.988122632646205</v>
       </c>
       <c r="I60" t="n">
         <v>12.10414129671386</v>
       </c>
       <c r="J60" t="n">
-        <v>-9.762779731521647</v>
+        <v>-9.76277973152164</v>
       </c>
       <c r="K60" t="n">
         <v>-11.05816436200861</v>
@@ -5428,7 +5428,7 @@
         <v>-12.4586936939517</v>
       </c>
       <c r="O60" t="n">
-        <v>-12.38308475970019</v>
+        <v>-12.3830847597002</v>
       </c>
       <c r="P60" t="n">
         <v>1.612227132525718</v>
@@ -5458,10 +5458,10 @@
         <v>1.937542961955076</v>
       </c>
       <c r="Y60" t="n">
-        <v>0.217340400463907</v>
+        <v>0.2173404004639069</v>
       </c>
       <c r="Z60" t="n">
-        <v>0.0002077605583363463</v>
+        <v>0.0002077605583363511</v>
       </c>
       <c r="AA60" t="n">
         <v>0.6996864469093896</v>
@@ -5484,7 +5484,7 @@
         <v>20.08805817654772</v>
       </c>
       <c r="F61" t="n">
-        <v>26.82327912130711</v>
+        <v>26.8232791213071</v>
       </c>
       <c r="G61" t="n">
         <v>28.8028231857539</v>
@@ -5517,7 +5517,7 @@
         <v>1.673007032017593</v>
       </c>
       <c r="Q61" t="n">
-        <v>0.765212802090099</v>
+        <v>0.7652128020900991</v>
       </c>
       <c r="R61" t="n">
         <v>3.048539386710092</v>
@@ -5526,25 +5526,25 @@
         <v>0.8077325478311534</v>
       </c>
       <c r="T61" t="n">
-        <v>0.3069133061328531</v>
+        <v>0.306913306132853</v>
       </c>
       <c r="U61" t="n">
-        <v>1.569809838411889</v>
+        <v>1.56980983841189</v>
       </c>
       <c r="V61" t="n">
         <v>0.3621481277396671</v>
       </c>
       <c r="W61" t="n">
-        <v>0.09867842724129275</v>
+        <v>0.09867842724129269</v>
       </c>
       <c r="X61" t="n">
         <v>0.7996284674280307</v>
       </c>
       <c r="Y61" t="n">
-        <v>0.07203434262069944</v>
+        <v>0.07203434262069945</v>
       </c>
       <c r="Z61" t="n">
-        <v>-0.0003431116115213103</v>
+        <v>-0.0003431116115213064</v>
       </c>
       <c r="AA61" t="n">
         <v>0.2344029691666393</v>
@@ -5567,7 +5567,7 @@
         <v>10.92340685065709</v>
       </c>
       <c r="F62" t="n">
-        <v>14.78862351626173</v>
+        <v>14.78862351626172</v>
       </c>
       <c r="G62" t="n">
         <v>21.19934113310638</v>
@@ -5576,7 +5576,7 @@
         <v>17.08119522551349</v>
       </c>
       <c r="I62" t="n">
-        <v>24.88914701626492</v>
+        <v>24.88914701626491</v>
       </c>
       <c r="J62" t="n">
         <v>18.91485061315225</v>
@@ -5627,7 +5627,7 @@
         <v>0.1277688915425219</v>
       </c>
       <c r="Z62" t="n">
-        <v>0.001937082076232389</v>
+        <v>0.001937082076232391</v>
       </c>
       <c r="AA62" t="n">
         <v>0.3754515407284099</v>
@@ -5644,13 +5644,13 @@
         <v>0</v>
       </c>
       <c r="D63" t="n">
-        <v>37.64270846537399</v>
+        <v>37.64270846537397</v>
       </c>
       <c r="E63" t="n">
         <v>31.32289838434368</v>
       </c>
       <c r="F63" t="n">
-        <v>42.54626726704962</v>
+        <v>42.54626726704961</v>
       </c>
       <c r="G63" t="n">
         <v>37.16563014285963</v>
@@ -5668,10 +5668,10 @@
         <v>9.993597851220947</v>
       </c>
       <c r="L63" t="n">
-        <v>17.99858245350552</v>
+        <v>17.99858245350553</v>
       </c>
       <c r="M63" t="n">
-        <v>-3.546042182202147</v>
+        <v>-3.546042182202148</v>
       </c>
       <c r="N63" t="n">
         <v>-3.443069878695164</v>
@@ -5689,28 +5689,28 @@
         <v>0.545738031146386</v>
       </c>
       <c r="S63" t="n">
-        <v>0.1316895192163343</v>
+        <v>0.1316895192163345</v>
       </c>
       <c r="T63" t="n">
         <v>-0.07747347486710798</v>
       </c>
       <c r="U63" t="n">
-        <v>0.5129665692522298</v>
+        <v>0.5129665692522303</v>
       </c>
       <c r="V63" t="n">
         <v>0.09011359053981149</v>
       </c>
       <c r="W63" t="n">
-        <v>-0.03003320245674873</v>
+        <v>-0.03003320245674884</v>
       </c>
       <c r="X63" t="n">
-        <v>0.3434857338216026</v>
+        <v>0.3434857338216029</v>
       </c>
       <c r="Y63" t="n">
         <v>0.02213965705332241</v>
       </c>
       <c r="Z63" t="n">
-        <v>-0.004135775980285339</v>
+        <v>-0.004135775980285332</v>
       </c>
       <c r="AA63" t="n">
         <v>0.13299174713606</v>
@@ -5733,19 +5733,19 @@
         <v>8.049817580040937</v>
       </c>
       <c r="F64" t="n">
-        <v>14.26460599542285</v>
+        <v>14.26460599542286</v>
       </c>
       <c r="G64" t="n">
-        <v>7.039633554753923</v>
+        <v>7.039633554753924</v>
       </c>
       <c r="H64" t="n">
-        <v>3.220061013940505</v>
+        <v>3.220061013940503</v>
       </c>
       <c r="I64" t="n">
         <v>11.0767670336815</v>
       </c>
       <c r="J64" t="n">
-        <v>-9.689501094250645</v>
+        <v>-9.689501094250637</v>
       </c>
       <c r="K64" t="n">
         <v>-10.86208142361241</v>
@@ -5763,7 +5763,7 @@
         <v>-12.12392227168208</v>
       </c>
       <c r="P64" t="n">
-        <v>1.617070678878311</v>
+        <v>1.61707067887831</v>
       </c>
       <c r="Q64" t="n">
         <v>0.6075169843132006</v>
@@ -5790,10 +5790,10 @@
         <v>1.917163822049352</v>
       </c>
       <c r="Y64" t="n">
-        <v>0.2144464332235255</v>
+        <v>0.2144464332235254</v>
       </c>
       <c r="Z64" t="n">
-        <v>0.000236567625138258</v>
+        <v>0.0002365676251382628</v>
       </c>
       <c r="AA64" t="n">
         <v>0.6944727120052205</v>
@@ -5810,13 +5810,13 @@
         <v>0</v>
       </c>
       <c r="D65" t="n">
-        <v>-0.28563176697301</v>
+        <v>-0.2856317669730011</v>
       </c>
       <c r="E65" t="n">
-        <v>0.5609878776899153</v>
+        <v>0.5609878776899144</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.219335970385336</v>
+        <v>-1.219335970385339</v>
       </c>
       <c r="G65" t="n">
         <v>16.40130812313458</v>
@@ -5876,7 +5876,7 @@
         <v>0.1439304748577011</v>
       </c>
       <c r="Z65" t="n">
-        <v>0.006829548555833151</v>
+        <v>0.006829548555833146</v>
       </c>
       <c r="AA65" t="n">
         <v>0.3520961875854861</v>
@@ -5911,10 +5911,10 @@
         <v>30.76977130432812</v>
       </c>
       <c r="J66" t="n">
-        <v>7.977182572682633</v>
+        <v>7.977182572682636</v>
       </c>
       <c r="K66" t="n">
-        <v>4.757976804909473</v>
+        <v>4.757976804909472</v>
       </c>
       <c r="L66" t="n">
         <v>11.74263316784782</v>
@@ -5938,7 +5938,7 @@
         <v>2.136669078166231</v>
       </c>
       <c r="S66" t="n">
-        <v>0.8419621659707472</v>
+        <v>0.8419621659707474</v>
       </c>
       <c r="T66" t="n">
         <v>0.2605886679871864</v>
@@ -5950,16 +5950,16 @@
         <v>0.4684801853144052</v>
       </c>
       <c r="W66" t="n">
-        <v>0.1069374713539089</v>
+        <v>0.1069374713539088</v>
       </c>
       <c r="X66" t="n">
         <v>1.040471814338719</v>
       </c>
       <c r="Y66" t="n">
-        <v>0.1057674448728973</v>
+        <v>0.1057674448728972</v>
       </c>
       <c r="Z66" t="n">
-        <v>-0.001442913722358043</v>
+        <v>-0.001442913722358038</v>
       </c>
       <c r="AA66" t="n">
         <v>0.3591695443401424</v>
@@ -6042,7 +6042,7 @@
         <v>0.1220328859354413</v>
       </c>
       <c r="Z67" t="n">
-        <v>0.000539839662429709</v>
+        <v>0.0005398396624297112</v>
       </c>
       <c r="AA67" t="n">
         <v>0.3942339506429247</v>
@@ -6059,25 +6059,25 @@
         <v>0</v>
       </c>
       <c r="D68" t="n">
-        <v>-0.5175522970405169</v>
+        <v>-0.517552297040524</v>
       </c>
       <c r="E68" t="n">
         <v>-1.451654721537925</v>
       </c>
       <c r="F68" t="n">
-        <v>0.4053783847098433</v>
+        <v>0.4053783847098469</v>
       </c>
       <c r="G68" t="n">
         <v>4.804966004235292</v>
       </c>
       <c r="H68" t="n">
-        <v>2.385984497414348</v>
+        <v>2.38598449741435</v>
       </c>
       <c r="I68" t="n">
-        <v>7.250891271683013</v>
+        <v>7.250891271683011</v>
       </c>
       <c r="J68" t="n">
-        <v>1.101609671676972</v>
+        <v>1.101609671676975</v>
       </c>
       <c r="K68" t="n">
         <v>-1.56314705758775</v>
@@ -6086,7 +6086,7 @@
         <v>4.009664599272124</v>
       </c>
       <c r="M68" t="n">
-        <v>1.455327595340517</v>
+        <v>1.455327595340519</v>
       </c>
       <c r="N68" t="n">
         <v>-0.5220970465491988</v>
@@ -6101,7 +6101,7 @@
         <v>1.56308150662361</v>
       </c>
       <c r="R68" t="n">
-        <v>5.147130678478924</v>
+        <v>5.147130678478923</v>
       </c>
       <c r="S68" t="n">
         <v>2.06909849145069</v>
@@ -6122,13 +6122,13 @@
         <v>2.189797048563139</v>
       </c>
       <c r="Y68" t="n">
-        <v>0.2422358143739131</v>
+        <v>0.242235814373913</v>
       </c>
       <c r="Z68" t="n">
-        <v>0.003558949290124866</v>
+        <v>0.003558949290124867</v>
       </c>
       <c r="AA68" t="n">
-        <v>0.7211821782018263</v>
+        <v>0.7211821782018262</v>
       </c>
     </row>
     <row r="69">
@@ -6148,16 +6148,16 @@
         <v>19.75123720085947</v>
       </c>
       <c r="F69" t="n">
-        <v>24.99870711563948</v>
+        <v>24.99870711563947</v>
       </c>
       <c r="G69" t="n">
-        <v>34.1716376878828</v>
+        <v>34.17163768788279</v>
       </c>
       <c r="H69" t="n">
         <v>28.67864948561713</v>
       </c>
       <c r="I69" t="n">
-        <v>38.8883695219756</v>
+        <v>38.88836952197561</v>
       </c>
       <c r="J69" t="n">
         <v>32.21982234130546</v>
@@ -6166,10 +6166,10 @@
         <v>26.3111829229151</v>
       </c>
       <c r="L69" t="n">
-        <v>37.65827309499882</v>
+        <v>37.65827309499883</v>
       </c>
       <c r="M69" t="n">
-        <v>19.16385813415811</v>
+        <v>19.1638581341581</v>
       </c>
       <c r="N69" t="n">
         <v>15.67983440245193</v>
@@ -6178,7 +6178,7 @@
         <v>22.96389553942775</v>
       </c>
       <c r="P69" t="n">
-        <v>2.251208464049821</v>
+        <v>2.251208464049822</v>
       </c>
       <c r="Q69" t="n">
         <v>1.155369352131452</v>
@@ -6199,16 +6199,16 @@
         <v>0.2820790115172528</v>
       </c>
       <c r="W69" t="n">
-        <v>0.1043699552348168</v>
+        <v>0.1043699552348167</v>
       </c>
       <c r="X69" t="n">
         <v>0.5995434003287904</v>
       </c>
       <c r="Y69" t="n">
-        <v>0.04408917484926458</v>
+        <v>0.04408917484926461</v>
       </c>
       <c r="Z69" t="n">
-        <v>0.000699076365711598</v>
+        <v>0.0006990763657115998</v>
       </c>
       <c r="AA69" t="n">
         <v>0.1200638638014744</v>
@@ -6225,13 +6225,13 @@
         <v>0</v>
       </c>
       <c r="D70" t="n">
-        <v>-4.640448254705735</v>
+        <v>-4.640448254705733</v>
       </c>
       <c r="E70" t="n">
-        <v>-4.650590404401851</v>
+        <v>-4.650590404401853</v>
       </c>
       <c r="F70" t="n">
-        <v>-4.376914358635249</v>
+        <v>-4.376914358635243</v>
       </c>
       <c r="G70" t="n">
         <v>-2.984518584307487</v>
@@ -6246,13 +6246,13 @@
         <v>4.646062952970256</v>
       </c>
       <c r="K70" t="n">
-        <v>2.089717171540851</v>
+        <v>2.089717171540849</v>
       </c>
       <c r="L70" t="n">
-        <v>7.213526080819587</v>
+        <v>7.213526080819584</v>
       </c>
       <c r="M70" t="n">
-        <v>8.261343711285145</v>
+        <v>8.261343711285146</v>
       </c>
       <c r="N70" t="n">
         <v>4.936691043446801</v>
@@ -6267,7 +6267,7 @@
         <v>2.076111491679177</v>
       </c>
       <c r="R70" t="n">
-        <v>6.385448883396773</v>
+        <v>6.385448883396772</v>
       </c>
       <c r="S70" t="n">
         <v>2.348852791315048</v>
@@ -6291,7 +6291,7 @@
         <v>0.2556072881960756</v>
       </c>
       <c r="Z70" t="n">
-        <v>0.00557050974171453</v>
+        <v>0.005570509741714528</v>
       </c>
       <c r="AA70" t="n">
         <v>0.7510328496004395</v>
@@ -6317,10 +6317,10 @@
         <v>-14.83278076955567</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.8950872832339805</v>
+        <v>-0.8950872832339787</v>
       </c>
       <c r="H71" t="n">
-        <v>-0.77252932755278</v>
+        <v>-0.7725293275527783</v>
       </c>
       <c r="I71" t="n">
         <v>-1.291589935524719</v>
@@ -6359,7 +6359,7 @@
         <v>1.283032545762367</v>
       </c>
       <c r="U71" t="n">
-        <v>4.578112741902041</v>
+        <v>4.57811274190204</v>
       </c>
       <c r="V71" t="n">
         <v>1.250043985387135</v>
@@ -6374,7 +6374,7 @@
         <v>0.2555034304487108</v>
       </c>
       <c r="Z71" t="n">
-        <v>0.008480222836527541</v>
+        <v>0.008480222836527534</v>
       </c>
       <c r="AA71" t="n">
         <v>0.6926130901547334</v>
@@ -6397,13 +6397,13 @@
         <v>-0.57923348670914</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1204070438052991</v>
+        <v>0.1204070438053009</v>
       </c>
       <c r="G72" t="n">
         <v>8.36973995136923</v>
       </c>
       <c r="H72" t="n">
-        <v>6.231550131791687</v>
+        <v>6.231550131791688</v>
       </c>
       <c r="I72" t="n">
         <v>10.2828161174744</v>
@@ -6415,7 +6415,7 @@
         <v>9.40953893981127</v>
       </c>
       <c r="L72" t="n">
-        <v>16.93480148342287</v>
+        <v>16.93480148342286</v>
       </c>
       <c r="M72" t="n">
         <v>12.63643194840835</v>
@@ -6442,7 +6442,7 @@
         <v>0.9062840653636586</v>
       </c>
       <c r="U72" t="n">
-        <v>3.530965301150086</v>
+        <v>3.530965301150085</v>
       </c>
       <c r="V72" t="n">
         <v>0.9911409188634408</v>
